--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H2">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I2">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J2">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N2">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O2">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P2">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q2">
-        <v>0.05012466635657865</v>
+        <v>0.09650975868733332</v>
       </c>
       <c r="R2">
-        <v>0.05012466635657865</v>
+        <v>0.868587828186</v>
       </c>
       <c r="S2">
-        <v>0.0003379105722033844</v>
+        <v>0.0004172973096674792</v>
       </c>
       <c r="T2">
-        <v>0.0003379105722033844</v>
+        <v>0.00056019938432335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H3">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I3">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J3">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P3">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q3">
-        <v>0.6151604946093389</v>
+        <v>0.6828440148913333</v>
       </c>
       <c r="R3">
-        <v>0.6151604946093389</v>
+        <v>6.145596134022</v>
       </c>
       <c r="S3">
-        <v>0.00414704475540268</v>
+        <v>0.00295254049136994</v>
       </c>
       <c r="T3">
-        <v>0.00414704475540268</v>
+        <v>0.003963628154643965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H4">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I4">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J4">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N4">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O4">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P4">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q4">
-        <v>0.1321766028285627</v>
+        <v>0.1421697069833333</v>
       </c>
       <c r="R4">
-        <v>0.1321766028285627</v>
+        <v>1.27952736285</v>
       </c>
       <c r="S4">
-        <v>0.0008910557364305959</v>
+        <v>0.0006147257753753493</v>
       </c>
       <c r="T4">
-        <v>0.0008910557364305959</v>
+        <v>0.0008252365709411664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H5">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I5">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J5">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N5">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O5">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P5">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q5">
-        <v>0.1152988196384665</v>
+        <v>0.1493919544593333</v>
       </c>
       <c r="R5">
-        <v>0.1152988196384665</v>
+        <v>1.344527590134</v>
       </c>
       <c r="S5">
-        <v>0.0007772757995285009</v>
+        <v>0.0006459539587474739</v>
       </c>
       <c r="T5">
-        <v>0.0007772757995285009</v>
+        <v>0.0008671587417611529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H6">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I6">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J6">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N6">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O6">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P6">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q6">
-        <v>1.263692881465697</v>
+        <v>2.025723443157</v>
       </c>
       <c r="R6">
-        <v>1.263692881465697</v>
+        <v>12.154340658942</v>
       </c>
       <c r="S6">
-        <v>0.008519062882687362</v>
+        <v>0.008758999654101367</v>
       </c>
       <c r="T6">
-        <v>0.008519062882687362</v>
+        <v>0.007838993286626527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H7">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J7">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N7">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O7">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P7">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q7">
-        <v>2.818720478815275</v>
+        <v>6.074177697988111</v>
       </c>
       <c r="R7">
-        <v>2.818720478815275</v>
+        <v>54.667599281893</v>
       </c>
       <c r="S7">
-        <v>0.01900213047009856</v>
+        <v>0.02626405916135939</v>
       </c>
       <c r="T7">
-        <v>0.01900213047009856</v>
+        <v>0.03525809879711331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H8">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J8">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P8">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q8">
-        <v>34.59305786852189</v>
+        <v>42.97716565529011</v>
       </c>
       <c r="R8">
-        <v>34.59305786852189</v>
+        <v>386.794490897611</v>
       </c>
       <c r="S8">
-        <v>0.2332057413701436</v>
+        <v>0.1858284162038837</v>
       </c>
       <c r="T8">
-        <v>0.2332057413701436</v>
+        <v>0.2494647387737799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H9">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J9">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N9">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O9">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P9">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q9">
-        <v>7.432845429088921</v>
+        <v>8.947945526269445</v>
       </c>
       <c r="R9">
-        <v>7.432845429088921</v>
+        <v>80.53150973642499</v>
       </c>
       <c r="S9">
-        <v>0.05010780588892849</v>
+        <v>0.03868990707209662</v>
       </c>
       <c r="T9">
-        <v>0.05010780588892849</v>
+        <v>0.05193913696349251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H10">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I10">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J10">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N10">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O10">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P10">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q10">
-        <v>6.483736805073419</v>
+        <v>9.402502818140777</v>
       </c>
       <c r="R10">
-        <v>6.483736805073419</v>
+        <v>84.62252536326699</v>
       </c>
       <c r="S10">
-        <v>0.04370948223839804</v>
+        <v>0.04065536152527969</v>
       </c>
       <c r="T10">
-        <v>0.04370948223839804</v>
+        <v>0.05457765475184369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H11">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I11">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J11">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N11">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O11">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P11">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q11">
-        <v>71.06275737739543</v>
+        <v>127.4959582126785</v>
       </c>
       <c r="R11">
-        <v>71.06275737739543</v>
+        <v>764.975749276071</v>
       </c>
       <c r="S11">
-        <v>0.4790626801767106</v>
+        <v>0.5512781409804827</v>
       </c>
       <c r="T11">
-        <v>0.4790626801767106</v>
+        <v>0.4933743368954748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H12">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I12">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J12">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N12">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O12">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P12">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q12">
-        <v>0.547421998363286</v>
+        <v>0.01301180791444444</v>
       </c>
       <c r="R12">
-        <v>0.547421998363286</v>
+        <v>0.11710627123</v>
       </c>
       <c r="S12">
-        <v>0.003690392258927831</v>
+        <v>5.626158960980106E-05</v>
       </c>
       <c r="T12">
-        <v>0.003690392258927831</v>
+        <v>7.552818369612359E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H13">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I13">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J13">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P13">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q13">
-        <v>6.718296833690433</v>
+        <v>0.09206359313444444</v>
       </c>
       <c r="R13">
-        <v>6.718296833690433</v>
+        <v>0.82857233821</v>
       </c>
       <c r="S13">
-        <v>0.04529074590052743</v>
+        <v>0.0003980725913717089</v>
       </c>
       <c r="T13">
-        <v>0.04529074590052743</v>
+        <v>0.0005343912252396931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H14">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I14">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J14">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N14">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O14">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P14">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q14">
-        <v>1.443528412589338</v>
+        <v>0.01916785352777778</v>
       </c>
       <c r="R14">
-        <v>1.443528412589338</v>
+        <v>0.17251068175</v>
       </c>
       <c r="S14">
-        <v>0.009731406657550486</v>
+        <v>8.287963640190695E-05</v>
       </c>
       <c r="T14">
-        <v>0.009731406657550486</v>
+        <v>0.000111261492009829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H15">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I15">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J15">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N15">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O15">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P15">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q15">
-        <v>1.259202601098881</v>
+        <v>0.02014158404111111</v>
       </c>
       <c r="R15">
-        <v>1.259202601098881</v>
+        <v>0.18127425637</v>
       </c>
       <c r="S15">
-        <v>0.008488792093505238</v>
+        <v>8.708993729874738E-05</v>
       </c>
       <c r="T15">
-        <v>0.008488792093505238</v>
+        <v>0.0001169135964341434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.04049</v>
+      </c>
+      <c r="I16">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J16">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.2357845</v>
+      </c>
+      <c r="N16">
+        <v>40.471569</v>
+      </c>
+      <c r="O16">
+        <v>0.6541684461278472</v>
+      </c>
+      <c r="P16">
+        <v>0.5577284055609554</v>
+      </c>
+      <c r="Q16">
+        <v>0.273115638135</v>
+      </c>
+      <c r="R16">
+        <v>1.63869382881</v>
+      </c>
+      <c r="S16">
+        <v>0.001180921210165772</v>
+      </c>
+      <c r="T16">
+        <v>0.001056882498469982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0623235</v>
+      </c>
+      <c r="H17">
+        <v>2.124647</v>
+      </c>
+      <c r="I17">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J17">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9640756666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.892227</v>
+      </c>
+      <c r="O17">
+        <v>0.03116597139157128</v>
+      </c>
+      <c r="P17">
+        <v>0.03985704515756099</v>
+      </c>
+      <c r="Q17">
+        <v>1.024160236478167</v>
+      </c>
+      <c r="R17">
+        <v>6.144961418869</v>
+      </c>
+      <c r="S17">
+        <v>0.004428353330934613</v>
+      </c>
+      <c r="T17">
+        <v>0.003963218792428202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0623235</v>
+      </c>
+      <c r="H18">
+        <v>2.124647</v>
+      </c>
+      <c r="I18">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J18">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.821209666666667</v>
+      </c>
+      <c r="N18">
+        <v>20.463629</v>
+      </c>
+      <c r="O18">
+        <v>0.2205113485150815</v>
+      </c>
+      <c r="P18">
+        <v>0.2820040699227877</v>
+      </c>
+      <c r="Q18">
+        <v>7.246331327327167</v>
+      </c>
+      <c r="R18">
+        <v>43.477987963963</v>
+      </c>
+      <c r="S18">
+        <v>0.03133231922845619</v>
+      </c>
+      <c r="T18">
+        <v>0.02804131176912418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0623235</v>
+      </c>
+      <c r="H19">
+        <v>2.124647</v>
+      </c>
+      <c r="I19">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J19">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.420191666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.260575</v>
+      </c>
+      <c r="O19">
+        <v>0.04591097398705006</v>
+      </c>
+      <c r="P19">
+        <v>0.05871390114682402</v>
+      </c>
+      <c r="Q19">
+        <v>1.508702982004167</v>
+      </c>
+      <c r="R19">
+        <v>9.052217892025</v>
+      </c>
+      <c r="S19">
+        <v>0.006523461503176183</v>
+      </c>
+      <c r="T19">
+        <v>0.005838266120380518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="H16">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="I16">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="J16">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.3761508408746</v>
-      </c>
-      <c r="N16">
-        <v>13.3761508408746</v>
-      </c>
-      <c r="O16">
-        <v>0.5806202162583551</v>
-      </c>
-      <c r="P16">
-        <v>0.5806202162583551</v>
-      </c>
-      <c r="Q16">
-        <v>13.80105510465146</v>
-      </c>
-      <c r="R16">
-        <v>13.80105510465146</v>
-      </c>
-      <c r="S16">
-        <v>0.09303847319895715</v>
-      </c>
-      <c r="T16">
-        <v>0.09303847319895715</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0623235</v>
+      </c>
+      <c r="H20">
+        <v>2.124647</v>
+      </c>
+      <c r="I20">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J20">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.492337666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.477012999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.04824325997845007</v>
+      </c>
+      <c r="P20">
+        <v>0.06169657821187187</v>
+      </c>
+      <c r="Q20">
+        <v>1.585345373235167</v>
+      </c>
+      <c r="R20">
+        <v>9.512072239410999</v>
+      </c>
+      <c r="S20">
+        <v>0.006854854557124169</v>
+      </c>
+      <c r="T20">
+        <v>0.006134851121832884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0623235</v>
+      </c>
+      <c r="H21">
+        <v>2.124647</v>
+      </c>
+      <c r="I21">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J21">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.2357845</v>
+      </c>
+      <c r="N21">
+        <v>40.471569</v>
+      </c>
+      <c r="O21">
+        <v>0.6541684461278472</v>
+      </c>
+      <c r="P21">
+        <v>0.5577284055609554</v>
+      </c>
+      <c r="Q21">
+        <v>21.49694941528575</v>
+      </c>
+      <c r="R21">
+        <v>85.98779766114301</v>
+      </c>
+      <c r="S21">
+        <v>0.09295038428309745</v>
+      </c>
+      <c r="T21">
+        <v>0.0554581928803841</v>
       </c>
     </row>
   </sheetData>
